--- a/DataDriven.xlsx
+++ b/DataDriven.xlsx
@@ -18,10 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
-    <t>Module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TestCase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,6 +123,10 @@
   </si>
   <si>
     <t>varName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +483,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -495,102 +495,102 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -618,29 +618,29 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
         <v>200</v>
